--- a/list of devices.xlsx
+++ b/list of devices.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projected\TPIOTLab\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projected\TPIOTLab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253283A1-593F-48AA-A8B5-7F65C5F0D876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ABF9A81-637C-4D29-884C-E1F1438EA07C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{DF80CDF8-BB8F-435A-B2DA-B21A7680ADF5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="3" xr2:uid="{DF80CDF8-BB8F-435A-B2DA-B21A7680ADF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Over view" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="118">
   <si>
     <t>STT</t>
   </si>
@@ -384,6 +384,15 @@
   </si>
   <si>
     <t>Lúa thoại sơn hữu cơ (hợp tác xã)</t>
+  </si>
+  <si>
+    <t>/0386184834</t>
+  </si>
+  <si>
+    <t>Khí tượng Vĩnh Long</t>
+  </si>
+  <si>
+    <t>CTU showcase</t>
   </si>
 </sst>
 </file>
@@ -904,8 +913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3610B78D-A414-4C7C-A47F-C4EB21666F70}">
   <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:C26"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -1546,10 +1555,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92EEFD38-8285-4B83-A8B3-15A16A8665EF}">
-  <dimension ref="A3:C12"/>
+  <dimension ref="A3:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1557,9 +1566,10 @@
     <col min="1" max="1" width="4.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" ht="17">
+    <row r="3" spans="1:4" ht="17">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -1570,7 +1580,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17">
+    <row r="4" spans="1:4" ht="17">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -1581,7 +1591,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="17">
+    <row r="5" spans="1:4" ht="17">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -1590,7 +1600,7 @@
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:3" ht="17">
+    <row r="6" spans="1:4" ht="17">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -1598,19 +1608,24 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="17">
+        <v>116</v>
+      </c>
+      <c r="D6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17">
       <c r="A7" s="4">
         <v>4</v>
       </c>
       <c r="B7" s="2">
         <v>4</v>
       </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" ht="17">
+      <c r="C7" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -1621,7 +1636,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17">
+    <row r="9" spans="1:4" ht="17">
       <c r="A9" s="4">
         <v>6</v>
       </c>
@@ -1630,7 +1645,7 @@
       </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" ht="17">
+    <row r="10" spans="1:4" ht="17">
       <c r="A10" s="4">
         <v>7</v>
       </c>
@@ -1639,7 +1654,7 @@
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" ht="17">
+    <row r="11" spans="1:4" ht="17">
       <c r="A11" s="4">
         <v>8</v>
       </c>
@@ -1648,7 +1663,7 @@
       </c>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" ht="17">
+    <row r="12" spans="1:4" ht="17">
       <c r="A12" s="4">
         <v>9</v>
       </c>
@@ -1666,8 +1681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15EECD56-F4FF-43D3-86C0-8F5CEDA23FB9}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1751,8 +1766,12 @@
       <c r="A9" s="4">
         <v>6</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="B9" s="2">
+        <v>262</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="17">
       <c r="A10" s="4">
